--- a/fastqFiles/fastq_468.xlsx
+++ b/fastqFiles/fastq_468.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FCA147-057A-0A45-A27E-DC92F98A750D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B67100A-5CC5-4B4B-A40B-A1E84002D843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="13080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>libraryDate</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E14"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,7 +515,7 @@
         <v>468</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -532,7 +535,7 @@
         <v>468</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -552,7 +555,7 @@
         <v>468</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -572,7 +575,7 @@
         <v>468</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -592,7 +595,7 @@
         <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -612,7 +615,7 @@
         <v>468</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -632,7 +635,7 @@
         <v>468</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
@@ -652,7 +655,7 @@
         <v>468</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -672,7 +675,7 @@
         <v>468</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -692,7 +695,7 @@
         <v>468</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -712,7 +715,7 @@
         <v>468</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -732,7 +735,7 @@
         <v>468</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -752,7 +755,7 @@
         <v>468</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>

--- a/fastqFiles/fastq_468.xlsx
+++ b/fastqFiles/fastq_468.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
